--- a/data/pca/factorExposure/factorExposure_2016-08-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01000751753152402</v>
+        <v>-0.01376448631764894</v>
       </c>
       <c r="C2">
-        <v>-0.05517273599157903</v>
+        <v>0.04332438330709541</v>
       </c>
       <c r="D2">
-        <v>0.03637355782512873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06466508778390263</v>
+      </c>
+      <c r="E2">
+        <v>-0.05235877976626274</v>
+      </c>
+      <c r="F2">
+        <v>-0.08129920708859384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05952547622506586</v>
+        <v>-0.03134237757618712</v>
       </c>
       <c r="C3">
-        <v>-0.09242024306902812</v>
+        <v>0.08179178250017145</v>
       </c>
       <c r="D3">
-        <v>0.08434980677762161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09041220314382267</v>
+      </c>
+      <c r="E3">
+        <v>-0.06071824065541065</v>
+      </c>
+      <c r="F3">
+        <v>-0.009753207163015537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.0663887200795938</v>
+        <v>-0.05775647993897775</v>
       </c>
       <c r="C4">
-        <v>-0.05896445084847862</v>
+        <v>0.06631032614446593</v>
       </c>
       <c r="D4">
-        <v>0.02397332657368685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05905512156204552</v>
+      </c>
+      <c r="E4">
+        <v>-0.05058309800612072</v>
+      </c>
+      <c r="F4">
+        <v>-0.08832478777339536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.04153540070722245</v>
+        <v>-0.03534560004028055</v>
       </c>
       <c r="C6">
-        <v>-0.03544376668256959</v>
+        <v>0.03159954997952655</v>
       </c>
       <c r="D6">
-        <v>0.02991464570711696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0672475067703357</v>
+      </c>
+      <c r="E6">
+        <v>-0.05854384263400632</v>
+      </c>
+      <c r="F6">
+        <v>-0.07107403033802305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.02048486674630822</v>
+        <v>-0.01926117511907694</v>
       </c>
       <c r="C7">
-        <v>-0.04385158814303759</v>
+        <v>0.03857272920253399</v>
       </c>
       <c r="D7">
-        <v>-0.003766130562612759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03721838641449256</v>
+      </c>
+      <c r="E7">
+        <v>-0.03208475338809165</v>
+      </c>
+      <c r="F7">
+        <v>-0.1079171935949615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.001223384465120646</v>
+        <v>-0.003265140177327326</v>
       </c>
       <c r="C8">
-        <v>-0.02696626208851922</v>
+        <v>0.02910027307245587</v>
       </c>
       <c r="D8">
-        <v>0.03247660904834077</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03565894602015966</v>
+      </c>
+      <c r="E8">
+        <v>-0.04127161271336233</v>
+      </c>
+      <c r="F8">
+        <v>-0.05005769060042936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03577827439098014</v>
+        <v>-0.03645083129264261</v>
       </c>
       <c r="C9">
-        <v>-0.04387733469325536</v>
+        <v>0.05286451498996469</v>
       </c>
       <c r="D9">
-        <v>0.01277326945560431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04451374529804843</v>
+      </c>
+      <c r="E9">
+        <v>-0.04260200239863061</v>
+      </c>
+      <c r="F9">
+        <v>-0.09206847607213837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.06511733335805132</v>
+        <v>-0.09819794946635771</v>
       </c>
       <c r="C10">
-        <v>0.1966559408064853</v>
+        <v>-0.1950890550019005</v>
       </c>
       <c r="D10">
-        <v>0.003726675885111405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0007469719834462627</v>
+      </c>
+      <c r="E10">
+        <v>-0.04586812783719179</v>
+      </c>
+      <c r="F10">
+        <v>-0.04088358043737306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.04131670621653407</v>
+        <v>-0.03647691893275774</v>
       </c>
       <c r="C11">
-        <v>-0.05314573126639104</v>
+        <v>0.05112763472141803</v>
       </c>
       <c r="D11">
-        <v>0.007719435294556891</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03400667606873842</v>
+      </c>
+      <c r="E11">
+        <v>-0.006006760303709366</v>
+      </c>
+      <c r="F11">
+        <v>-0.06641877825607159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.04127938699218472</v>
+        <v>-0.03730996610633393</v>
       </c>
       <c r="C12">
-        <v>-0.04766576029196782</v>
+        <v>0.04714688530551473</v>
       </c>
       <c r="D12">
-        <v>0.001339789652836776</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02575659163358976</v>
+      </c>
+      <c r="E12">
+        <v>-0.01462675282658625</v>
+      </c>
+      <c r="F12">
+        <v>-0.06984342322611331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01549398218856549</v>
+        <v>-0.01221670016372246</v>
       </c>
       <c r="C13">
-        <v>-0.04751654693814283</v>
+        <v>0.04264335511956278</v>
       </c>
       <c r="D13">
-        <v>0.01916215635062823</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06176840399401583</v>
+      </c>
+      <c r="E13">
+        <v>-0.0621301740634716</v>
+      </c>
+      <c r="F13">
+        <v>-0.1140294441455089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.007117794303081167</v>
+        <v>-0.004968349772030539</v>
       </c>
       <c r="C14">
-        <v>-0.03430687757631196</v>
+        <v>0.03208651512647815</v>
       </c>
       <c r="D14">
-        <v>-0.01474546577105327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02635422810134736</v>
+      </c>
+      <c r="E14">
+        <v>-0.02657554717457218</v>
+      </c>
+      <c r="F14">
+        <v>-0.09775418733742046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001410798564658741</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003581143061899407</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.005068904338478402</v>
+      </c>
+      <c r="E15">
+        <v>-0.0002137426872940898</v>
+      </c>
+      <c r="F15">
+        <v>-0.003051046297157176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03587243449768116</v>
+        <v>-0.03392570746366774</v>
       </c>
       <c r="C16">
-        <v>-0.04530583581697413</v>
+        <v>0.04519931802342367</v>
       </c>
       <c r="D16">
-        <v>0.008531800897897788</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02847660920325755</v>
+      </c>
+      <c r="E16">
+        <v>-0.0202137210460566</v>
+      </c>
+      <c r="F16">
+        <v>-0.07094281676875147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02449626841995254</v>
+        <v>-0.01657577859053287</v>
       </c>
       <c r="C19">
-        <v>-0.06433616951209452</v>
+        <v>0.05094855386784524</v>
       </c>
       <c r="D19">
-        <v>0.07342480672512394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09474778003012131</v>
+      </c>
+      <c r="E19">
+        <v>-0.08128526387155814</v>
+      </c>
+      <c r="F19">
+        <v>-0.09154751718350693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0163571340540829</v>
+        <v>-0.01350063466391919</v>
       </c>
       <c r="C20">
-        <v>-0.04657423177824095</v>
+        <v>0.0412041643764425</v>
       </c>
       <c r="D20">
-        <v>0.01897557392566502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03993923822506865</v>
+      </c>
+      <c r="E20">
+        <v>-0.05636745101525943</v>
+      </c>
+      <c r="F20">
+        <v>-0.08932822740817545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01033010118276669</v>
+        <v>-0.008902090203338956</v>
       </c>
       <c r="C21">
-        <v>-0.04902797500573115</v>
+        <v>0.04529579585100359</v>
       </c>
       <c r="D21">
-        <v>0.03293002588439238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06770671079998378</v>
+      </c>
+      <c r="E21">
+        <v>-0.06928178783783219</v>
+      </c>
+      <c r="F21">
+        <v>-0.1358871852348287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001777978608125951</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02325514475246417</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0359146766425551</v>
+      </c>
+      <c r="E22">
+        <v>-0.01969465420400649</v>
+      </c>
+      <c r="F22">
+        <v>-0.02154265335161134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001846186296619006</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02337821911615786</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0356003007867824</v>
+      </c>
+      <c r="E23">
+        <v>-0.01997571026550899</v>
+      </c>
+      <c r="F23">
+        <v>-0.0214215567468885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.03281976122994969</v>
+        <v>-0.03371100406638153</v>
       </c>
       <c r="C24">
-        <v>-0.04927473930303271</v>
+        <v>0.0530760827545389</v>
       </c>
       <c r="D24">
-        <v>0.005213668109825037</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02698890882235671</v>
+      </c>
+      <c r="E24">
+        <v>-0.0173339246608662</v>
+      </c>
+      <c r="F24">
+        <v>-0.07927070307558885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04727941701301597</v>
+        <v>-0.04406134681786385</v>
       </c>
       <c r="C25">
-        <v>-0.05877786144487305</v>
+        <v>0.05611657585412599</v>
       </c>
       <c r="D25">
-        <v>-0.006144772421533966</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.024881979057427</v>
+      </c>
+      <c r="E25">
+        <v>-0.01173538686670735</v>
+      </c>
+      <c r="F25">
+        <v>-0.08065352352651242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01507059062711001</v>
+        <v>-0.01387762804062961</v>
       </c>
       <c r="C26">
-        <v>-0.01759995817588226</v>
+        <v>0.01681648224510499</v>
       </c>
       <c r="D26">
-        <v>0.001349425881810939</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0260980490040934</v>
+      </c>
+      <c r="E26">
+        <v>-0.02858313729228633</v>
+      </c>
+      <c r="F26">
+        <v>-0.07479033046627336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.07606139277284452</v>
+        <v>-0.1325565114013365</v>
       </c>
       <c r="C28">
-        <v>0.229985538522312</v>
+        <v>-0.2457991582571658</v>
       </c>
       <c r="D28">
-        <v>-0.001232466367827307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01670611682271717</v>
+      </c>
+      <c r="E28">
+        <v>-0.04683187710224532</v>
+      </c>
+      <c r="F28">
+        <v>-0.05716315184943021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.00891562510704139</v>
+        <v>-0.005894638457653924</v>
       </c>
       <c r="C29">
-        <v>-0.02747778015520853</v>
+        <v>0.02750420937229634</v>
       </c>
       <c r="D29">
-        <v>-0.01642073789231251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02113240792179953</v>
+      </c>
+      <c r="E29">
+        <v>-0.02835950590146198</v>
+      </c>
+      <c r="F29">
+        <v>-0.08980666921207976</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05384897153613111</v>
+        <v>-0.04225228618748372</v>
       </c>
       <c r="C30">
-        <v>-0.0575707490627763</v>
+        <v>0.06470925963731758</v>
       </c>
       <c r="D30">
-        <v>0.05663777974068007</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1079900014146959</v>
+      </c>
+      <c r="E30">
+        <v>-0.04233791804103302</v>
+      </c>
+      <c r="F30">
+        <v>-0.1045291419981543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05416619128725322</v>
+        <v>-0.05488513623818684</v>
       </c>
       <c r="C31">
-        <v>-0.0323299134399678</v>
+        <v>0.05436844840543163</v>
       </c>
       <c r="D31">
-        <v>-0.01943078483963565</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01008876156359825</v>
+      </c>
+      <c r="E31">
+        <v>-0.0480807900591596</v>
+      </c>
+      <c r="F31">
+        <v>-0.08289920118159269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.009846449122496825</v>
+        <v>-0.004879115308747253</v>
       </c>
       <c r="C32">
-        <v>-0.04298176291199227</v>
+        <v>0.03357019091042877</v>
       </c>
       <c r="D32">
-        <v>0.0284139752298294</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05019085459525451</v>
+      </c>
+      <c r="E32">
+        <v>-0.02390222065716322</v>
+      </c>
+      <c r="F32">
+        <v>-0.07458972120164881</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02765380013799566</v>
+        <v>-0.02452958411083443</v>
       </c>
       <c r="C33">
-        <v>-0.06244359628169888</v>
+        <v>0.05509744409359363</v>
       </c>
       <c r="D33">
-        <v>0.03565086795721943</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07923820785675363</v>
+      </c>
+      <c r="E33">
+        <v>-0.05116344692461615</v>
+      </c>
+      <c r="F33">
+        <v>-0.1297573865756614</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04597855056332338</v>
+        <v>-0.04143501182094169</v>
       </c>
       <c r="C34">
-        <v>-0.06337177472272418</v>
+        <v>0.06341548192151567</v>
       </c>
       <c r="D34">
-        <v>0.0007417377528421338</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03477712913298799</v>
+      </c>
+      <c r="E34">
+        <v>0.007189630989180769</v>
+      </c>
+      <c r="F34">
+        <v>-0.07702095333264136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01136349817038642</v>
+        <v>-0.01290689524669909</v>
       </c>
       <c r="C36">
-        <v>-0.01735565130979402</v>
+        <v>0.01260335190465851</v>
       </c>
       <c r="D36">
-        <v>0.0007353359314426338</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02737147786997843</v>
+      </c>
+      <c r="E36">
+        <v>-0.0343738137214975</v>
+      </c>
+      <c r="F36">
+        <v>-0.08229230192081254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02958008574546795</v>
+        <v>-0.02428597716566678</v>
       </c>
       <c r="C38">
-        <v>-0.02855081371617594</v>
+        <v>0.02467271573018564</v>
       </c>
       <c r="D38">
-        <v>-0.001099738650415548</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02606010751745787</v>
+      </c>
+      <c r="E38">
+        <v>-0.03357181291226389</v>
+      </c>
+      <c r="F38">
+        <v>-0.06942173555606657</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04329222850397166</v>
+        <v>-0.03957386164267611</v>
       </c>
       <c r="C39">
-        <v>-0.0720489812401811</v>
+        <v>0.06811021909859534</v>
       </c>
       <c r="D39">
-        <v>0.02225399546942288</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05348416383957434</v>
+      </c>
+      <c r="E39">
+        <v>-0.01961938399724005</v>
+      </c>
+      <c r="F39">
+        <v>-0.09144908173236992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01492116315330029</v>
+        <v>-0.0156483415347936</v>
       </c>
       <c r="C40">
-        <v>-0.03819323691707219</v>
+        <v>0.04066055234466497</v>
       </c>
       <c r="D40">
-        <v>0.03323079560352427</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03849622652983381</v>
+      </c>
+      <c r="E40">
+        <v>-0.06971343899804454</v>
+      </c>
+      <c r="F40">
+        <v>-0.08832973839376854</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01337564591572366</v>
+        <v>-0.0175658130964879</v>
       </c>
       <c r="C41">
-        <v>-0.0108318388756413</v>
+        <v>0.006587387960373033</v>
       </c>
       <c r="D41">
-        <v>-0.002789982763622864</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01541916050849765</v>
+      </c>
+      <c r="E41">
+        <v>-0.03778729953099769</v>
+      </c>
+      <c r="F41">
+        <v>-0.07148393737534962</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.0005221182781979255</v>
+        <v>-0.000491263427937339</v>
       </c>
       <c r="C42">
-        <v>-0.006625824656181532</v>
+        <v>0.00358302491660733</v>
       </c>
       <c r="D42">
-        <v>0.008673669821480417</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.00183787599911566</v>
+      </c>
+      <c r="E42">
+        <v>-0.007092354873681299</v>
+      </c>
+      <c r="F42">
+        <v>0.005719232194580757</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03333457808436339</v>
+        <v>-0.02877083659893865</v>
       </c>
       <c r="C43">
-        <v>-0.02546884368137206</v>
+        <v>0.02187425346598182</v>
       </c>
       <c r="D43">
-        <v>0.01326835791142344</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03952064529337856</v>
+      </c>
+      <c r="E43">
+        <v>-0.04374973971160145</v>
+      </c>
+      <c r="F43">
+        <v>-0.08562352836431196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.02025180996265186</v>
+        <v>-0.01439669274360932</v>
       </c>
       <c r="C44">
-        <v>-0.05862806143261193</v>
+        <v>0.05265634313893333</v>
       </c>
       <c r="D44">
-        <v>0.01422231833873772</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03894759897159922</v>
+      </c>
+      <c r="E44">
+        <v>-0.05646202408953455</v>
+      </c>
+      <c r="F44">
+        <v>-0.08917078557875616</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.003200307353458807</v>
+        <v>-0.007456372548006174</v>
       </c>
       <c r="C46">
-        <v>-0.02276207890139218</v>
+        <v>0.02572415825299104</v>
       </c>
       <c r="D46">
-        <v>-0.02206384934978167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0121310199599319</v>
+      </c>
+      <c r="E46">
+        <v>-0.03327809209210614</v>
+      </c>
+      <c r="F46">
+        <v>-0.1040157957706801</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.08454186993084262</v>
+        <v>-0.08726876651159114</v>
       </c>
       <c r="C47">
-        <v>-0.06796179914882441</v>
+        <v>0.0794011539200911</v>
       </c>
       <c r="D47">
-        <v>-0.01561412139971544</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01653288281359377</v>
+      </c>
+      <c r="E47">
+        <v>-0.05429315208807856</v>
+      </c>
+      <c r="F47">
+        <v>-0.08108090121597276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01864731759340385</v>
+        <v>-0.01570361228017869</v>
       </c>
       <c r="C48">
-        <v>-0.01502977855081399</v>
+        <v>0.01785937514402367</v>
       </c>
       <c r="D48">
-        <v>-0.009115579875113395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01729815080662778</v>
+      </c>
+      <c r="E48">
+        <v>-0.04529867230914336</v>
+      </c>
+      <c r="F48">
+        <v>-0.09664101111599364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08606779522402697</v>
+        <v>-0.07122313735265985</v>
       </c>
       <c r="C50">
-        <v>-0.06639054296910381</v>
+        <v>0.07109920619858159</v>
       </c>
       <c r="D50">
-        <v>-0.02538113356341778</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.005635782459014938</v>
+      </c>
+      <c r="E50">
+        <v>-0.05200367346069441</v>
+      </c>
+      <c r="F50">
+        <v>-0.07402559347526114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01415618060411517</v>
+        <v>-0.01079866261498687</v>
       </c>
       <c r="C51">
-        <v>-0.04624752784391308</v>
+        <v>0.03398735283625556</v>
       </c>
       <c r="D51">
-        <v>0.01244501661699312</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04821019127664796</v>
+      </c>
+      <c r="E51">
+        <v>-0.02189362733610098</v>
+      </c>
+      <c r="F51">
+        <v>-0.08291018032089985</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.08650415632291433</v>
+        <v>-0.094280689198411</v>
       </c>
       <c r="C53">
-        <v>-0.06850656077212001</v>
+        <v>0.08565880858560822</v>
       </c>
       <c r="D53">
-        <v>-0.03281660330443568</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04039834620607848</v>
+      </c>
+      <c r="E53">
+        <v>-0.05039997696885008</v>
+      </c>
+      <c r="F53">
+        <v>-0.09053549660109346</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03221651946082133</v>
+        <v>-0.02812092440357915</v>
       </c>
       <c r="C54">
-        <v>-0.0241751975577019</v>
+        <v>0.02681900421954214</v>
       </c>
       <c r="D54">
-        <v>0.00191163542615731</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03100735565894665</v>
+      </c>
+      <c r="E54">
+        <v>-0.04062341456101664</v>
+      </c>
+      <c r="F54">
+        <v>-0.0969390024075564</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.0782370318727499</v>
+        <v>-0.085409716600873</v>
       </c>
       <c r="C55">
-        <v>-0.05615992737230877</v>
+        <v>0.06930949482331666</v>
       </c>
       <c r="D55">
-        <v>-0.03774814194007299</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.047540992433717</v>
+      </c>
+      <c r="E55">
+        <v>-0.04203440949961405</v>
+      </c>
+      <c r="F55">
+        <v>-0.06540122536087349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1538094842082555</v>
+        <v>-0.1470371680996581</v>
       </c>
       <c r="C56">
-        <v>-0.08317072831786557</v>
+        <v>0.1032860910640821</v>
       </c>
       <c r="D56">
-        <v>-0.04081764686609256</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05064445380242052</v>
+      </c>
+      <c r="E56">
+        <v>-0.04606070394847309</v>
+      </c>
+      <c r="F56">
+        <v>-0.05068183864854719</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.002048483175713827</v>
+        <v>-0.0007800268629075931</v>
       </c>
       <c r="C57">
-        <v>-0.001189346933574868</v>
+        <v>0.0008530528218073199</v>
       </c>
       <c r="D57">
-        <v>0.01879570420900116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01649937453211868</v>
+      </c>
+      <c r="E57">
+        <v>-0.008087829358665019</v>
+      </c>
+      <c r="F57">
+        <v>-0.01111523586207833</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07191998170608939</v>
+        <v>-0.02775890247745539</v>
       </c>
       <c r="C58">
-        <v>-0.02169249555726106</v>
+        <v>0.0417318549369582</v>
       </c>
       <c r="D58">
-        <v>0.9029924639761919</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4751222213900905</v>
+      </c>
+      <c r="E58">
+        <v>-0.7001966847897994</v>
+      </c>
+      <c r="F58">
+        <v>0.4514562344520346</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1229230180964666</v>
+        <v>-0.1436155009832892</v>
       </c>
       <c r="C59">
-        <v>0.2067903581196651</v>
+        <v>-0.1870186676451708</v>
       </c>
       <c r="D59">
-        <v>0.01912476058662864</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03222107934981164</v>
+      </c>
+      <c r="E59">
+        <v>-0.02608460046803081</v>
+      </c>
+      <c r="F59">
+        <v>-0.02289545142260985</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3209858778385974</v>
+        <v>-0.2840446557628745</v>
       </c>
       <c r="C60">
-        <v>-0.0774836198344642</v>
+        <v>0.09553789283368942</v>
       </c>
       <c r="D60">
-        <v>0.0290422621333907</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2069225353064814</v>
+      </c>
+      <c r="E60">
+        <v>0.2700183302227654</v>
+      </c>
+      <c r="F60">
+        <v>0.1150078788953504</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.04231246913744108</v>
+        <v>-0.04104941749842283</v>
       </c>
       <c r="C61">
-        <v>-0.06357182144458513</v>
+        <v>0.06182214666261879</v>
       </c>
       <c r="D61">
-        <v>0.01217350173841809</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04579657815659369</v>
+      </c>
+      <c r="E61">
+        <v>-0.02216095787559611</v>
+      </c>
+      <c r="F61">
+        <v>-0.08281173728356304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01632807344067509</v>
+        <v>-0.01522300551218608</v>
       </c>
       <c r="C63">
-        <v>-0.03676178899436666</v>
+        <v>0.03270577973352671</v>
       </c>
       <c r="D63">
-        <v>-0.003403007018130817</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02311289373964423</v>
+      </c>
+      <c r="E63">
+        <v>-0.03741223562500157</v>
+      </c>
+      <c r="F63">
+        <v>-0.07819323230811054</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05195383715671385</v>
+        <v>-0.055812681432329</v>
       </c>
       <c r="C64">
-        <v>-0.03817114074313423</v>
+        <v>0.05386365953881292</v>
       </c>
       <c r="D64">
-        <v>-0.008832615628144417</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.00645135026982299</v>
+      </c>
+      <c r="E64">
+        <v>-0.01979309171626347</v>
+      </c>
+      <c r="F64">
+        <v>-0.0862664959498769</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09651593477127271</v>
+        <v>-0.06972849094102267</v>
       </c>
       <c r="C65">
-        <v>-0.02408779051124901</v>
+        <v>0.03196385090867359</v>
       </c>
       <c r="D65">
-        <v>0.04048175060902421</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08695527398554963</v>
+      </c>
+      <c r="E65">
+        <v>-0.03261078250554346</v>
+      </c>
+      <c r="F65">
+        <v>-0.01886343695174603</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06639347197554295</v>
+        <v>-0.05264975334099348</v>
       </c>
       <c r="C66">
-        <v>-0.1022945321954379</v>
+        <v>0.09017252152329075</v>
       </c>
       <c r="D66">
-        <v>0.03440294631438543</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08052363156599178</v>
+      </c>
+      <c r="E66">
+        <v>-0.02275788013038639</v>
+      </c>
+      <c r="F66">
+        <v>-0.0937248900758926</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05131031639772265</v>
+        <v>-0.04640134515407902</v>
       </c>
       <c r="C67">
-        <v>-0.03285024897041342</v>
+        <v>0.03036517189652008</v>
       </c>
       <c r="D67">
-        <v>-0.006261505358446878</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01203693336133912</v>
+      </c>
+      <c r="E67">
+        <v>-0.01647737161840162</v>
+      </c>
+      <c r="F67">
+        <v>-0.05450147469186192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1021277930532549</v>
+        <v>-0.1485151923274471</v>
       </c>
       <c r="C68">
-        <v>0.29390988524474</v>
+        <v>-0.2532388883923954</v>
       </c>
       <c r="D68">
-        <v>-0.001814293577296576</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01774708394180861</v>
+      </c>
+      <c r="E68">
+        <v>-0.0416311626183581</v>
+      </c>
+      <c r="F68">
+        <v>-0.01906440899079998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.09162283926292657</v>
+        <v>-0.08747931240162672</v>
       </c>
       <c r="C69">
-        <v>-0.0633648646576393</v>
+        <v>0.0851756895633673</v>
       </c>
       <c r="D69">
-        <v>-0.04147403568624849</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01169270270948006</v>
+      </c>
+      <c r="E69">
+        <v>-0.03104118376624821</v>
+      </c>
+      <c r="F69">
+        <v>-0.09736913197480151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.101500729964525</v>
+        <v>-0.1407493889055689</v>
       </c>
       <c r="C71">
-        <v>0.2530817725864573</v>
+        <v>-0.2341845728489428</v>
       </c>
       <c r="D71">
-        <v>0.0276367804796514</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01557705481494866</v>
+      </c>
+      <c r="E71">
+        <v>-0.06203840085215701</v>
+      </c>
+      <c r="F71">
+        <v>-0.05806865278010256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08899028435362417</v>
+        <v>-0.0971433810565286</v>
       </c>
       <c r="C72">
-        <v>-0.04854709832013999</v>
+        <v>0.05529078339041853</v>
       </c>
       <c r="D72">
-        <v>-0.008002060911834512</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02077669011313326</v>
+      </c>
+      <c r="E72">
+        <v>-0.008823064609398782</v>
+      </c>
+      <c r="F72">
+        <v>-0.08107122505715175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4348609387811416</v>
+        <v>-0.3472864740052234</v>
       </c>
       <c r="C73">
-        <v>-0.03411638469151448</v>
+        <v>0.07569609258516344</v>
       </c>
       <c r="D73">
-        <v>0.1496890803497045</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.442001770691465</v>
+      </c>
+      <c r="E73">
+        <v>0.4748789604933694</v>
+      </c>
+      <c r="F73">
+        <v>0.2943404781332262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1177133461379193</v>
+        <v>-0.1121047895308762</v>
       </c>
       <c r="C74">
-        <v>-0.09886053382973348</v>
+        <v>0.09847777635095797</v>
       </c>
       <c r="D74">
-        <v>-0.01563001395237753</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03115385116781712</v>
+      </c>
+      <c r="E74">
+        <v>-0.06043306681463956</v>
+      </c>
+      <c r="F74">
+        <v>-0.05596665315736746</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2528132015237209</v>
+        <v>-0.2585739389756255</v>
       </c>
       <c r="C75">
-        <v>-0.1042382624925147</v>
+        <v>0.1321991046808065</v>
       </c>
       <c r="D75">
-        <v>-0.0604052660631841</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1300692426740616</v>
+      </c>
+      <c r="E75">
+        <v>-0.07325328139792403</v>
+      </c>
+      <c r="F75">
+        <v>-0.01512384003142304</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1181767512446434</v>
+        <v>-0.1294193130897855</v>
       </c>
       <c r="C76">
-        <v>-0.08718359094344023</v>
+        <v>0.1006728325737306</v>
       </c>
       <c r="D76">
-        <v>-0.03221625385767537</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05870472964030937</v>
+      </c>
+      <c r="E76">
+        <v>-0.06523311478034913</v>
+      </c>
+      <c r="F76">
+        <v>-0.07109142612452589</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08033767154423999</v>
+        <v>-0.06233225301342296</v>
       </c>
       <c r="C77">
-        <v>-0.05487106650261592</v>
+        <v>0.06956520470734613</v>
       </c>
       <c r="D77">
-        <v>0.05100042779418656</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.064833396322831</v>
+      </c>
+      <c r="E77">
+        <v>-0.0688683226689788</v>
+      </c>
+      <c r="F77">
+        <v>-0.1192536867064298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04885311925144333</v>
+        <v>-0.04359845070841888</v>
       </c>
       <c r="C78">
-        <v>-0.04631248303517389</v>
+        <v>0.05566686136340265</v>
       </c>
       <c r="D78">
-        <v>0.02069697803853356</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0733692100940434</v>
+      </c>
+      <c r="E78">
+        <v>-0.02407022012395169</v>
+      </c>
+      <c r="F78">
+        <v>-0.1036569078871894</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02538623598425228</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03769726345588719</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0610632437371518</v>
+      </c>
+      <c r="E79">
+        <v>-0.05061441093166152</v>
+      </c>
+      <c r="F79">
+        <v>-0.04361161344854043</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04570331453685642</v>
+        <v>-0.03509216401151913</v>
       </c>
       <c r="C80">
-        <v>-0.05080326127489634</v>
+        <v>0.05484806416579031</v>
       </c>
       <c r="D80">
-        <v>0.02983677609408283</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04625598523868497</v>
+      </c>
+      <c r="E80">
+        <v>-0.01028014652620902</v>
+      </c>
+      <c r="F80">
+        <v>-0.03708385172403467</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1434146889594912</v>
+        <v>-0.1414371904041428</v>
       </c>
       <c r="C81">
-        <v>-0.06453192991577558</v>
+        <v>0.0947601942305536</v>
       </c>
       <c r="D81">
-        <v>-0.03665133034765593</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09781151704700039</v>
+      </c>
+      <c r="E81">
+        <v>-0.0796669345069614</v>
+      </c>
+      <c r="F81">
+        <v>-0.0218713142884431</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1574725978637222</v>
+        <v>-0.2017146916352266</v>
       </c>
       <c r="C82">
-        <v>-0.05021875909822734</v>
+        <v>0.1332696228745137</v>
       </c>
       <c r="D82">
-        <v>-0.130193252216538</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2289933304967025</v>
+      </c>
+      <c r="E82">
+        <v>-0.01401479439859673</v>
+      </c>
+      <c r="F82">
+        <v>-0.08541590129901436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.03287025659965007</v>
+        <v>-0.02783807200954615</v>
       </c>
       <c r="C83">
-        <v>-0.01606834353113583</v>
+        <v>0.04041649845748291</v>
       </c>
       <c r="D83">
-        <v>0.02162611214311792</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03479723311774795</v>
+      </c>
+      <c r="E83">
+        <v>-0.008891964582390697</v>
+      </c>
+      <c r="F83">
+        <v>-0.05004430495673809</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2260326357392327</v>
+        <v>-0.2057037331160221</v>
       </c>
       <c r="C85">
-        <v>-0.09739300348293058</v>
+        <v>0.1190331677145767</v>
       </c>
       <c r="D85">
-        <v>-0.09936973123515239</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1034833524400358</v>
+      </c>
+      <c r="E85">
+        <v>-0.002473624434546158</v>
+      </c>
+      <c r="F85">
+        <v>0.01796205054969616</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.009971067711302165</v>
+        <v>-0.01166286504928049</v>
       </c>
       <c r="C86">
-        <v>-0.03459418000160361</v>
+        <v>0.03146282774675708</v>
       </c>
       <c r="D86">
-        <v>0.03744155519778868</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07085562799446367</v>
+      </c>
+      <c r="E86">
+        <v>-0.04318577248025179</v>
+      </c>
+      <c r="F86">
+        <v>-0.1369404898076914</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.02005321941938418</v>
+        <v>-0.02120934510673358</v>
       </c>
       <c r="C87">
-        <v>-0.0186717446967542</v>
+        <v>0.02148790833726204</v>
       </c>
       <c r="D87">
-        <v>0.09408915216712721</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09311943653498707</v>
+      </c>
+      <c r="E87">
+        <v>-0.08998218770593638</v>
+      </c>
+      <c r="F87">
+        <v>-0.09472905699259687</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1072081638872643</v>
+        <v>-0.09195776719141313</v>
       </c>
       <c r="C88">
-        <v>-0.06564956210720549</v>
+        <v>0.0619417527042831</v>
       </c>
       <c r="D88">
-        <v>-0.0177748843362431</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01067812220120502</v>
+      </c>
+      <c r="E88">
+        <v>-0.03490650084086942</v>
+      </c>
+      <c r="F88">
+        <v>-0.07357235723498257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1623322227305905</v>
+        <v>-0.2197615611015492</v>
       </c>
       <c r="C89">
-        <v>0.3858711899797709</v>
+        <v>-0.382088286055855</v>
       </c>
       <c r="D89">
-        <v>-0.02507919414812754</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01153847397740282</v>
+      </c>
+      <c r="E89">
+        <v>-0.03799324265128687</v>
+      </c>
+      <c r="F89">
+        <v>-0.09553965832920618</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.156543557429096</v>
+        <v>-0.1984968806160015</v>
       </c>
       <c r="C90">
-        <v>0.3545893363539003</v>
+        <v>-0.3169807866673643</v>
       </c>
       <c r="D90">
-        <v>-0.01062384424775914</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01093095792590859</v>
+      </c>
+      <c r="E90">
+        <v>-0.06764407563507208</v>
+      </c>
+      <c r="F90">
+        <v>-0.04746730141748538</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1926657359860063</v>
+        <v>-0.1872452764072991</v>
       </c>
       <c r="C91">
-        <v>-0.1096727688715855</v>
+        <v>0.1382571461838659</v>
       </c>
       <c r="D91">
-        <v>-0.06025614319407307</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1065872086892851</v>
+      </c>
+      <c r="E91">
+        <v>-0.06400591131925192</v>
+      </c>
+      <c r="F91">
+        <v>-0.03656536340025924</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1487942027356986</v>
+        <v>-0.1799654634369258</v>
       </c>
       <c r="C92">
-        <v>0.2986498282865677</v>
+        <v>-0.2839202826413289</v>
       </c>
       <c r="D92">
-        <v>-0.006806991213168555</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.0004585339429743742</v>
+      </c>
+      <c r="E92">
+        <v>-0.06920822804126375</v>
+      </c>
+      <c r="F92">
+        <v>-0.08068018811912735</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1807738569816524</v>
+        <v>-0.2226380926657919</v>
       </c>
       <c r="C93">
-        <v>0.3456269635621648</v>
+        <v>-0.3208550980474505</v>
       </c>
       <c r="D93">
-        <v>-0.005120243584105282</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.001221020791921927</v>
+      </c>
+      <c r="E93">
+        <v>-0.05122275097013042</v>
+      </c>
+      <c r="F93">
+        <v>-0.04395977383684363</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3327423170893286</v>
+        <v>-0.3442960360188232</v>
       </c>
       <c r="C94">
-        <v>-0.127172758536032</v>
+        <v>0.1832026668719801</v>
       </c>
       <c r="D94">
-        <v>-0.2443744829270612</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4754472386077514</v>
+      </c>
+      <c r="E94">
+        <v>-0.1439509623659343</v>
+      </c>
+      <c r="F94">
+        <v>0.4433222455091401</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1019730166613525</v>
+        <v>-0.08588674668362438</v>
       </c>
       <c r="C95">
-        <v>-0.07891036092721314</v>
+        <v>0.06613499624098755</v>
       </c>
       <c r="D95">
-        <v>0.06549723703283152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1602762051378776</v>
+      </c>
+      <c r="E95">
+        <v>0.1219167804380442</v>
+      </c>
+      <c r="F95">
+        <v>-0.171940457643443</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1980233706818486</v>
+        <v>-0.1875925083839529</v>
       </c>
       <c r="C98">
-        <v>-0.01527462705062255</v>
+        <v>0.04151823086403066</v>
       </c>
       <c r="D98">
-        <v>0.06652966287174235</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1786541625859529</v>
+      </c>
+      <c r="E98">
+        <v>0.1547018618825608</v>
+      </c>
+      <c r="F98">
+        <v>0.04510288819842821</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.008820623189655676</v>
+        <v>-0.0059417207086336</v>
       </c>
       <c r="C101">
-        <v>-0.02747199862889415</v>
+        <v>0.02725004360435484</v>
       </c>
       <c r="D101">
-        <v>-0.01663968206055138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02064403429829795</v>
+      </c>
+      <c r="E101">
+        <v>-0.02907301888473528</v>
+      </c>
+      <c r="F101">
+        <v>-0.08961773446413072</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1261285099705388</v>
+        <v>-0.1252528118728472</v>
       </c>
       <c r="C102">
-        <v>-0.06901920043817528</v>
+        <v>0.09875530848866595</v>
       </c>
       <c r="D102">
-        <v>-0.03483875112455448</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05064319871275164</v>
+      </c>
+      <c r="E102">
+        <v>0.008469747709791729</v>
+      </c>
+      <c r="F102">
+        <v>-0.03986247796004422</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
